--- a/2025年日历表(带农历完美打印版)-20241113.xlsx
+++ b/2025年日历表(带农历完美打印版)-20241113.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12525"/>
+    <workbookView windowWidth="28800" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="141">
   <si>
     <t>2025 年（乙巳蛇年）年历</t>
   </si>
@@ -206,7 +206,7 @@
     <t>立春</t>
   </si>
   <si>
-    <t>六九天</t>
+    <t>癌症日</t>
   </si>
   <si>
     <t>初八</t>
@@ -467,6 +467,9 @@
     <t>谷雨</t>
   </si>
   <si>
+    <t>读书日</t>
+  </si>
+  <si>
     <t>小满</t>
   </si>
   <si>
@@ -635,6 +638,9 @@
     <t>七夕</t>
   </si>
   <si>
+    <t>心脏日</t>
+  </si>
+  <si>
     <t>Oct.</t>
   </si>
   <si>
@@ -736,7 +742,7 @@
     <t>中秋节</t>
   </si>
   <si>
-    <t>寒露</t>
+    <t>高血压</t>
   </si>
   <si>
     <t>立冬</t>
@@ -745,6 +751,9 @@
     <t>大雪</t>
   </si>
   <si>
+    <t>糖尿病</t>
+  </si>
+  <si>
     <t>冬月</t>
   </si>
   <si>
@@ -754,6 +763,9 @@
     <t>霜降</t>
   </si>
   <si>
+    <t>程序员</t>
+  </si>
+  <si>
     <t>寒衣节</t>
   </si>
   <si>
@@ -773,6 +785,9 @@
   </si>
   <si>
     <t>万圣节</t>
+  </si>
+  <si>
+    <t>感恩节</t>
   </si>
 </sst>
 </file>
@@ -1152,6 +1167,13 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color rgb="FF7030A0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="5" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -1159,7 +1181,14 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="3" tint="0.399945066682943"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF00B050"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1173,21 +1202,21 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color rgb="FF7030A0"/>
+      <color theme="4" tint="-0.499984740745262"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
-      <color rgb="FF00B050"/>
+      <color rgb="FF0070C0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="4" tint="-0.499984740745262"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1201,21 +1230,7 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color rgb="FF0070C0"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="9" tint="-0.249977111117893"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="4" tint="-0.249977111117893"/>
+      <color theme="3" tint="0.399945066682943"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1783,7 +1798,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1927,9 +1942,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2376,7 +2388,7 @@
   <dimension ref="A1:AC63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AB23" sqref="AB23"/>
+      <selection activeCell="AC27" sqref="AC27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2417,7 +2429,7 @@
       <c r="V1" s="9"/>
       <c r="W1" s="9"/>
       <c r="X1" s="9"/>
-      <c r="Y1" s="76"/>
+      <c r="Y1" s="75"/>
     </row>
     <row r="2" ht="20.25" customHeight="1" spans="1:24">
       <c r="A2" s="7"/>
@@ -2445,7 +2457,7 @@
       <c r="U2" s="11"/>
       <c r="V2" s="11"/>
       <c r="W2" s="11"/>
-      <c r="X2" s="67"/>
+      <c r="X2" s="66"/>
     </row>
     <row r="3" ht="4" customHeight="1" spans="1:25">
       <c r="A3" s="7"/>
@@ -2472,7 +2484,7 @@
       <c r="V3" s="9"/>
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
-      <c r="Y3" s="76"/>
+      <c r="Y3" s="75"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="20.1" customHeight="1" spans="2:25">
       <c r="B4" s="12" t="s">
@@ -2494,7 +2506,7 @@
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
       <c r="N4" s="6"/>
-      <c r="O4" s="54" t="s">
+      <c r="O4" s="53" t="s">
         <v>4</v>
       </c>
       <c r="P4" s="37"/>
@@ -2506,7 +2518,7 @@
       <c r="T4" s="12"/>
       <c r="U4" s="12"/>
       <c r="V4" s="13"/>
-      <c r="W4" s="68" t="s">
+      <c r="W4" s="67" t="s">
         <v>6</v>
       </c>
       <c r="X4" s="37"/>
@@ -2534,7 +2546,7 @@
       <c r="H5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="55"/>
+      <c r="I5" s="54"/>
       <c r="J5" s="16" t="s">
         <v>7</v>
       </c>
@@ -2556,7 +2568,7 @@
       <c r="P5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="55"/>
+      <c r="Q5" s="54"/>
       <c r="R5" s="16" t="s">
         <v>7</v>
       </c>
@@ -2578,7 +2590,7 @@
       <c r="X5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="Y5" s="77"/>
+      <c r="Y5" s="76"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="8.1" customHeight="1" spans="2:25">
       <c r="B6" s="16"/>
@@ -2628,7 +2640,7 @@
       <c r="H7" s="22">
         <v>4</v>
       </c>
-      <c r="I7" s="56"/>
+      <c r="I7" s="55"/>
       <c r="J7" s="28"/>
       <c r="K7" s="29"/>
       <c r="L7" s="29"/>
@@ -2638,18 +2650,18 @@
       <c r="P7" s="39">
         <v>1</v>
       </c>
-      <c r="Q7" s="56"/>
+      <c r="Q7" s="55"/>
       <c r="R7" s="28"/>
       <c r="S7" s="29"/>
       <c r="T7" s="29"/>
       <c r="U7" s="29"/>
       <c r="V7" s="29"/>
       <c r="W7" s="29"/>
-      <c r="X7" s="69">
+      <c r="X7" s="68">
         <v>1</v>
       </c>
-      <c r="Y7" s="78"/>
-      <c r="Z7" s="78"/>
+      <c r="Y7" s="77"/>
+      <c r="Z7" s="77"/>
     </row>
     <row r="8" s="5" customFormat="1" ht="11.1" customHeight="1" spans="2:26">
       <c r="B8" s="23" t="s">
@@ -2673,7 +2685,7 @@
       <c r="H8" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="57"/>
+      <c r="I8" s="56"/>
       <c r="J8" s="31"/>
       <c r="K8" s="26"/>
       <c r="L8" s="26"/>
@@ -2683,18 +2695,18 @@
       <c r="P8" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="57"/>
+      <c r="Q8" s="56"/>
       <c r="R8" s="31"/>
       <c r="S8" s="26"/>
       <c r="T8" s="26"/>
       <c r="U8" s="26"/>
       <c r="V8" s="26"/>
       <c r="W8" s="26"/>
-      <c r="X8" s="70" t="s">
+      <c r="X8" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="Y8" s="79"/>
-      <c r="Z8" s="80"/>
+      <c r="Y8" s="78"/>
+      <c r="Z8" s="79"/>
     </row>
     <row r="9" s="4" customFormat="1" ht="11.1" customHeight="1" spans="2:26">
       <c r="B9" s="28">
@@ -2718,7 +2730,7 @@
       <c r="H9" s="22">
         <v>11</v>
       </c>
-      <c r="I9" s="56"/>
+      <c r="I9" s="55"/>
       <c r="J9" s="39">
         <v>2</v>
       </c>
@@ -2740,7 +2752,7 @@
       <c r="P9" s="34">
         <v>8</v>
       </c>
-      <c r="Q9" s="56"/>
+      <c r="Q9" s="55"/>
       <c r="R9" s="28">
         <v>2</v>
       </c>
@@ -2759,11 +2771,11 @@
       <c r="W9" s="29">
         <v>7</v>
       </c>
-      <c r="X9" s="61">
+      <c r="X9" s="60">
         <v>8</v>
       </c>
-      <c r="Y9" s="78"/>
-      <c r="Z9" s="78"/>
+      <c r="Y9" s="77"/>
+      <c r="Z9" s="77"/>
     </row>
     <row r="10" s="5" customFormat="1" ht="11.1" customHeight="1" spans="2:26">
       <c r="B10" s="31" t="s">
@@ -2787,7 +2799,7 @@
       <c r="H10" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="57"/>
+      <c r="I10" s="56"/>
       <c r="J10" s="41" t="s">
         <v>20</v>
       </c>
@@ -2809,7 +2821,7 @@
       <c r="P10" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="Q10" s="57"/>
+      <c r="Q10" s="56"/>
       <c r="R10" s="31" t="s">
         <v>18</v>
       </c>
@@ -2828,11 +2840,11 @@
       <c r="W10" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="X10" s="62" t="s">
+      <c r="X10" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="Y10" s="79"/>
-      <c r="Z10" s="80"/>
+      <c r="Y10" s="78"/>
+      <c r="Z10" s="79"/>
     </row>
     <row r="11" s="4" customFormat="1" ht="11.1" customHeight="1" spans="2:26">
       <c r="B11" s="29">
@@ -2856,7 +2868,7 @@
       <c r="H11" s="28">
         <v>18</v>
       </c>
-      <c r="I11" s="56"/>
+      <c r="I11" s="55"/>
       <c r="J11" s="28">
         <v>9</v>
       </c>
@@ -2878,7 +2890,7 @@
       <c r="P11" s="28">
         <v>15</v>
       </c>
-      <c r="Q11" s="56"/>
+      <c r="Q11" s="55"/>
       <c r="R11" s="28">
         <v>9</v>
       </c>
@@ -2897,11 +2909,11 @@
       <c r="W11" s="29">
         <v>14</v>
       </c>
-      <c r="X11" s="61">
+      <c r="X11" s="60">
         <v>15</v>
       </c>
-      <c r="Y11" s="78"/>
-      <c r="Z11" s="78"/>
+      <c r="Y11" s="77"/>
+      <c r="Z11" s="77"/>
     </row>
     <row r="12" s="5" customFormat="1" ht="11.1" customHeight="1" spans="2:26">
       <c r="B12" s="31" t="s">
@@ -2925,7 +2937,7 @@
       <c r="H12" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="57"/>
+      <c r="I12" s="56"/>
       <c r="J12" s="26" t="s">
         <v>28</v>
       </c>
@@ -2947,7 +2959,7 @@
       <c r="P12" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="Q12" s="57"/>
+      <c r="Q12" s="56"/>
       <c r="R12" s="31" t="s">
         <v>26</v>
       </c>
@@ -2966,11 +2978,11 @@
       <c r="W12" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="X12" s="62">
+      <c r="X12" s="61">
         <v>315</v>
       </c>
-      <c r="Y12" s="79"/>
-      <c r="Z12" s="80"/>
+      <c r="Y12" s="78"/>
+      <c r="Z12" s="79"/>
     </row>
     <row r="13" s="4" customFormat="1" ht="11.1" customHeight="1" spans="2:26">
       <c r="B13" s="28">
@@ -2994,7 +3006,7 @@
       <c r="H13" s="28">
         <v>25</v>
       </c>
-      <c r="I13" s="56"/>
+      <c r="I13" s="55"/>
       <c r="J13" s="28">
         <v>16</v>
       </c>
@@ -3016,7 +3028,7 @@
       <c r="P13" s="28">
         <v>22</v>
       </c>
-      <c r="Q13" s="56"/>
+      <c r="Q13" s="55"/>
       <c r="R13" s="28">
         <v>16</v>
       </c>
@@ -3038,8 +3050,8 @@
       <c r="X13" s="28">
         <v>22</v>
       </c>
-      <c r="Y13" s="78"/>
-      <c r="Z13" s="78"/>
+      <c r="Y13" s="77"/>
+      <c r="Z13" s="77"/>
     </row>
     <row r="14" s="5" customFormat="1" ht="11.1" customHeight="1" spans="2:26">
       <c r="B14" s="31" t="s">
@@ -3063,7 +3075,7 @@
       <c r="H14" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="I14" s="57"/>
+      <c r="I14" s="56"/>
       <c r="J14" s="31" t="s">
         <v>42</v>
       </c>
@@ -3085,7 +3097,7 @@
       <c r="P14" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="Q14" s="57"/>
+      <c r="Q14" s="56"/>
       <c r="R14" s="31" t="s">
         <v>40</v>
       </c>
@@ -3107,8 +3119,8 @@
       <c r="X14" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="Y14" s="79"/>
-      <c r="Z14" s="80"/>
+      <c r="Y14" s="78"/>
+      <c r="Z14" s="79"/>
     </row>
     <row r="15" s="4" customFormat="1" ht="11.1" customHeight="1" spans="2:26">
       <c r="B15" s="34">
@@ -3130,7 +3142,7 @@
         <v>31</v>
       </c>
       <c r="H15" s="28"/>
-      <c r="I15" s="56"/>
+      <c r="I15" s="55"/>
       <c r="J15" s="28">
         <v>23</v>
       </c>
@@ -3150,7 +3162,7 @@
         <v>28</v>
       </c>
       <c r="P15" s="28"/>
-      <c r="Q15" s="56"/>
+      <c r="Q15" s="55"/>
       <c r="R15" s="28">
         <v>23</v>
       </c>
@@ -3172,8 +3184,8 @@
       <c r="X15" s="28">
         <v>29</v>
       </c>
-      <c r="Y15" s="78"/>
-      <c r="Z15" s="78"/>
+      <c r="Y15" s="77"/>
+      <c r="Z15" s="77"/>
     </row>
     <row r="16" s="5" customFormat="1" ht="11.1" customHeight="1" spans="2:27">
       <c r="B16" s="35" t="s">
@@ -3195,7 +3207,7 @@
         <v>18</v>
       </c>
       <c r="H16" s="31"/>
-      <c r="I16" s="57"/>
+      <c r="I16" s="56"/>
       <c r="J16" s="33" t="s">
         <v>54</v>
       </c>
@@ -3215,7 +3227,7 @@
         <v>66</v>
       </c>
       <c r="P16" s="31"/>
-      <c r="Q16" s="57"/>
+      <c r="Q16" s="56"/>
       <c r="R16" s="31" t="s">
         <v>57</v>
       </c>
@@ -3237,8 +3249,8 @@
       <c r="X16" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="Y16" s="79"/>
-      <c r="Z16" s="80"/>
+      <c r="Y16" s="78"/>
+      <c r="Z16" s="79"/>
       <c r="AA16" s="26"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="11.1" customHeight="1" spans="2:27">
@@ -3249,7 +3261,7 @@
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
       <c r="H17" s="28"/>
-      <c r="I17" s="58"/>
+      <c r="I17" s="57"/>
       <c r="J17" s="28"/>
       <c r="K17" s="29"/>
       <c r="L17" s="29"/>
@@ -3257,7 +3269,7 @@
       <c r="N17" s="29"/>
       <c r="O17" s="29"/>
       <c r="P17" s="28"/>
-      <c r="Q17" s="58"/>
+      <c r="Q17" s="57"/>
       <c r="R17" s="28">
         <v>30</v>
       </c>
@@ -3280,7 +3292,7 @@
       <c r="F18" s="26"/>
       <c r="G18" s="26"/>
       <c r="H18" s="31"/>
-      <c r="I18" s="59"/>
+      <c r="I18" s="58"/>
       <c r="J18" s="31"/>
       <c r="K18" s="26"/>
       <c r="L18" s="26"/>
@@ -3288,7 +3300,7 @@
       <c r="N18" s="26"/>
       <c r="O18" s="26"/>
       <c r="P18" s="31"/>
-      <c r="Q18" s="59"/>
+      <c r="Q18" s="58"/>
       <c r="R18" s="31" t="s">
         <v>63</v>
       </c>
@@ -3300,7 +3312,7 @@
       <c r="V18" s="26"/>
       <c r="W18" s="26"/>
       <c r="X18" s="31"/>
-      <c r="Y18" s="81"/>
+      <c r="Y18" s="80"/>
     </row>
     <row r="19" ht="20.1" customHeight="1" spans="2:24">
       <c r="B19" s="12" t="s">
@@ -3319,7 +3331,7 @@
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
-      <c r="O19" s="60" t="s">
+      <c r="O19" s="59" t="s">
         <v>71</v>
       </c>
       <c r="P19" s="37"/>
@@ -3329,7 +3341,7 @@
       <c r="S19" s="12"/>
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
-      <c r="W19" s="71" t="s">
+      <c r="W19" s="70" t="s">
         <v>73</v>
       </c>
       <c r="X19" s="37"/>
@@ -3356,7 +3368,7 @@
       <c r="H20" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="55"/>
+      <c r="I20" s="54"/>
       <c r="J20" s="16" t="s">
         <v>7</v>
       </c>
@@ -3378,7 +3390,7 @@
       <c r="P20" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="Q20" s="55"/>
+      <c r="Q20" s="54"/>
       <c r="R20" s="16" t="s">
         <v>7</v>
       </c>
@@ -3423,9 +3435,9 @@
       <c r="V21" s="17"/>
       <c r="W21" s="17"/>
       <c r="X21" s="16"/>
-      <c r="Y21" s="78"/>
-      <c r="Z21" s="82"/>
-      <c r="AB21" s="83"/>
+      <c r="Y21" s="77"/>
+      <c r="Z21" s="81"/>
+      <c r="AB21" s="82"/>
     </row>
     <row r="22" s="4" customFormat="1" ht="11.1" customHeight="1" spans="2:26">
       <c r="B22" s="28"/>
@@ -3445,7 +3457,7 @@
       <c r="H22" s="39">
         <v>5</v>
       </c>
-      <c r="I22" s="56"/>
+      <c r="I22" s="55"/>
       <c r="J22" s="28"/>
       <c r="K22" s="29"/>
       <c r="L22" s="29"/>
@@ -3459,7 +3471,7 @@
       <c r="P22" s="20">
         <v>3</v>
       </c>
-      <c r="Q22" s="56"/>
+      <c r="Q22" s="55"/>
       <c r="R22" s="39">
         <v>1</v>
       </c>
@@ -3481,8 +3493,8 @@
       <c r="X22" s="22">
         <v>7</v>
       </c>
-      <c r="Y22" s="84"/>
-      <c r="Z22" s="85"/>
+      <c r="Y22" s="83"/>
+      <c r="Z22" s="84"/>
     </row>
     <row r="23" s="5" customFormat="1" ht="11.1" customHeight="1" spans="2:25">
       <c r="B23" s="31"/>
@@ -3502,7 +3514,7 @@
       <c r="H23" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="I23" s="57"/>
+      <c r="I23" s="56"/>
       <c r="J23" s="31"/>
       <c r="K23" s="26"/>
       <c r="L23" s="26"/>
@@ -3516,7 +3528,7 @@
       <c r="P23" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="Q23" s="57"/>
+      <c r="Q23" s="56"/>
       <c r="R23" s="41" t="s">
         <v>78</v>
       </c>
@@ -3535,10 +3547,10 @@
       <c r="W23" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="X23" s="72" t="s">
+      <c r="X23" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="Y23" s="81"/>
+      <c r="Y23" s="80"/>
     </row>
     <row r="24" s="4" customFormat="1" ht="11.1" customHeight="1" spans="2:27">
       <c r="B24" s="39">
@@ -3562,7 +3574,7 @@
       <c r="H24" s="28">
         <v>12</v>
       </c>
-      <c r="I24" s="56"/>
+      <c r="I24" s="55"/>
       <c r="J24" s="39">
         <v>4</v>
       </c>
@@ -3584,7 +3596,7 @@
       <c r="P24" s="28">
         <v>10</v>
       </c>
-      <c r="Q24" s="56"/>
+      <c r="Q24" s="55"/>
       <c r="R24" s="22">
         <v>8</v>
       </c>
@@ -3606,7 +3618,7 @@
       <c r="X24" s="22">
         <v>14</v>
       </c>
-      <c r="Y24" s="58"/>
+      <c r="Y24" s="57"/>
       <c r="AA24" s="26"/>
     </row>
     <row r="25" s="5" customFormat="1" ht="11.1" customHeight="1" spans="2:29">
@@ -3631,7 +3643,7 @@
       <c r="H25" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="57"/>
+      <c r="I25" s="56"/>
       <c r="J25" s="41" t="s">
         <v>81</v>
       </c>
@@ -3653,7 +3665,7 @@
       <c r="P25" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="Q25" s="57"/>
+      <c r="Q25" s="56"/>
       <c r="R25" s="31" t="s">
         <v>36</v>
       </c>
@@ -3675,7 +3687,7 @@
       <c r="X25" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="Y25" s="81"/>
+      <c r="Y25" s="80"/>
       <c r="AC25" s="4"/>
     </row>
     <row r="26" s="4" customFormat="1" ht="11.1" customHeight="1" spans="2:25">
@@ -3700,8 +3712,8 @@
       <c r="H26" s="28">
         <v>19</v>
       </c>
-      <c r="I26" s="56"/>
-      <c r="J26" s="61">
+      <c r="I26" s="55"/>
+      <c r="J26" s="60">
         <v>11</v>
       </c>
       <c r="K26" s="29">
@@ -3722,8 +3734,8 @@
       <c r="P26" s="28">
         <v>17</v>
       </c>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="61">
+      <c r="Q26" s="55"/>
+      <c r="R26" s="60">
         <v>15</v>
       </c>
       <c r="S26" s="29">
@@ -3744,7 +3756,7 @@
       <c r="X26" s="28">
         <v>21</v>
       </c>
-      <c r="Y26" s="58"/>
+      <c r="Y26" s="57"/>
     </row>
     <row r="27" s="5" customFormat="1" ht="11.1" customHeight="1" spans="2:25">
       <c r="B27" s="43" t="s">
@@ -3768,8 +3780,8 @@
       <c r="H27" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="I27" s="57"/>
-      <c r="J27" s="62" t="s">
+      <c r="I27" s="56"/>
+      <c r="J27" s="61" t="s">
         <v>84</v>
       </c>
       <c r="K27" s="26" t="s">
@@ -3790,8 +3802,8 @@
       <c r="P27" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="Q27" s="57"/>
-      <c r="R27" s="62" t="s">
+      <c r="Q27" s="56"/>
+      <c r="R27" s="61" t="s">
         <v>85</v>
       </c>
       <c r="S27" s="26" t="s">
@@ -3812,7 +3824,7 @@
       <c r="X27" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="Y27" s="81"/>
+      <c r="Y27" s="80"/>
     </row>
     <row r="28" s="4" customFormat="1" ht="11.1" customHeight="1" spans="2:25">
       <c r="B28" s="42">
@@ -3824,7 +3836,7 @@
       <c r="D28" s="29">
         <v>22</v>
       </c>
-      <c r="E28" s="29">
+      <c r="E28" s="38">
         <v>23</v>
       </c>
       <c r="F28" s="29">
@@ -3836,7 +3848,7 @@
       <c r="H28" s="28">
         <v>26</v>
       </c>
-      <c r="I28" s="56"/>
+      <c r="I28" s="55"/>
       <c r="J28" s="28">
         <v>18</v>
       </c>
@@ -3858,7 +3870,7 @@
       <c r="P28" s="28">
         <v>24</v>
       </c>
-      <c r="Q28" s="56"/>
+      <c r="Q28" s="55"/>
       <c r="R28" s="28">
         <v>22</v>
       </c>
@@ -3880,7 +3892,7 @@
       <c r="X28" s="28">
         <v>28</v>
       </c>
-      <c r="Y28" s="58"/>
+      <c r="Y28" s="57"/>
     </row>
     <row r="29" s="5" customFormat="1" ht="11.1" customHeight="1" spans="2:25">
       <c r="B29" s="43" t="s">
@@ -3892,8 +3904,8 @@
       <c r="D29" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="44" t="s">
-        <v>54</v>
+      <c r="E29" s="40" t="s">
+        <v>88</v>
       </c>
       <c r="F29" s="44" t="s">
         <v>64</v>
@@ -3904,7 +3916,7 @@
       <c r="H29" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="57"/>
+      <c r="I29" s="56"/>
       <c r="J29" s="31" t="s">
         <v>83</v>
       </c>
@@ -3915,7 +3927,7 @@
         <v>520</v>
       </c>
       <c r="M29" s="27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N29" s="26" t="s">
         <v>53</v>
@@ -3926,7 +3938,7 @@
       <c r="P29" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="Q29" s="57"/>
+      <c r="Q29" s="56"/>
       <c r="R29" s="27" t="s">
         <v>64</v>
       </c>
@@ -3937,7 +3949,7 @@
         <v>14</v>
       </c>
       <c r="U29" s="26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="V29" s="26" t="s">
         <v>63</v>
@@ -3948,7 +3960,7 @@
       <c r="X29" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Y29" s="81"/>
+      <c r="Y29" s="80"/>
     </row>
     <row r="30" s="4" customFormat="1" ht="11.1" customHeight="1" spans="2:25">
       <c r="B30" s="34">
@@ -3966,7 +3978,7 @@
       <c r="F30" s="29"/>
       <c r="G30" s="29"/>
       <c r="H30" s="28"/>
-      <c r="I30" s="56"/>
+      <c r="I30" s="55"/>
       <c r="J30" s="28">
         <v>25</v>
       </c>
@@ -3988,7 +4000,7 @@
       <c r="P30" s="39">
         <v>31</v>
       </c>
-      <c r="Q30" s="56"/>
+      <c r="Q30" s="55"/>
       <c r="R30" s="28">
         <v>29</v>
       </c>
@@ -4000,14 +4012,14 @@
       <c r="V30" s="29"/>
       <c r="W30" s="29"/>
       <c r="X30" s="28"/>
-      <c r="Y30" s="58"/>
+      <c r="Y30" s="57"/>
     </row>
     <row r="31" s="5" customFormat="1" ht="11.1" customHeight="1" spans="2:25">
       <c r="B31" s="35" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D31" s="26" t="s">
         <v>63</v>
@@ -4018,7 +4030,7 @@
       <c r="F31" s="26"/>
       <c r="G31" s="26"/>
       <c r="H31" s="31"/>
-      <c r="I31" s="57"/>
+      <c r="I31" s="56"/>
       <c r="J31" s="33" t="s">
         <v>60</v>
       </c>
@@ -4026,7 +4038,7 @@
         <v>14</v>
       </c>
       <c r="L31" s="26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M31" s="26" t="s">
         <v>63</v>
@@ -4038,9 +4050,9 @@
         <v>19</v>
       </c>
       <c r="P31" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q31" s="57"/>
+        <v>93</v>
+      </c>
+      <c r="Q31" s="56"/>
       <c r="R31" s="31" t="s">
         <v>20</v>
       </c>
@@ -4052,7 +4064,7 @@
       <c r="V31" s="26"/>
       <c r="W31" s="26"/>
       <c r="X31" s="31"/>
-      <c r="Y31" s="81"/>
+      <c r="Y31" s="80"/>
     </row>
     <row r="32" s="4" customFormat="1" ht="4" customHeight="1" spans="2:25">
       <c r="B32" s="22"/>
@@ -4062,15 +4074,15 @@
       <c r="F32" s="29"/>
       <c r="G32" s="29"/>
       <c r="H32" s="28"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="64"/>
-      <c r="L32" s="64"/>
-      <c r="M32" s="64"/>
-      <c r="N32" s="64"/>
-      <c r="O32" s="64"/>
-      <c r="P32" s="63"/>
-      <c r="Q32" s="56"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="62"/>
+      <c r="Q32" s="55"/>
       <c r="R32" s="29"/>
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
@@ -4078,37 +4090,37 @@
       <c r="V32" s="29"/>
       <c r="W32" s="29"/>
       <c r="X32" s="28"/>
-      <c r="Y32" s="58"/>
+      <c r="Y32" s="57"/>
     </row>
     <row r="33" ht="20.1" customHeight="1" spans="2:24">
       <c r="B33" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
       <c r="G33" s="45" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H33" s="37"/>
       <c r="J33" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
       <c r="M33" s="12"/>
-      <c r="O33" s="65" t="s">
-        <v>96</v>
+      <c r="O33" s="64" t="s">
+        <v>97</v>
       </c>
       <c r="P33" s="37"/>
       <c r="R33" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S33" s="12"/>
       <c r="T33" s="12"/>
       <c r="U33" s="12"/>
-      <c r="W33" s="73" t="s">
-        <v>98</v>
+      <c r="W33" s="72" t="s">
+        <v>99</v>
       </c>
       <c r="X33" s="37"/>
     </row>
@@ -4134,7 +4146,7 @@
       <c r="H34" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I34" s="55"/>
+      <c r="I34" s="54"/>
       <c r="J34" s="16" t="s">
         <v>7</v>
       </c>
@@ -4156,7 +4168,7 @@
       <c r="P34" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="Q34" s="55"/>
+      <c r="Q34" s="54"/>
       <c r="R34" s="16" t="s">
         <v>7</v>
       </c>
@@ -4178,7 +4190,7 @@
       <c r="X34" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="Y34" s="77"/>
+      <c r="Y34" s="76"/>
     </row>
     <row r="35" ht="9.95" customHeight="1" spans="2:24">
       <c r="B35" s="16"/>
@@ -4221,7 +4233,7 @@
       <c r="H36" s="42">
         <v>5</v>
       </c>
-      <c r="I36" s="58"/>
+      <c r="I36" s="57"/>
       <c r="J36" s="28"/>
       <c r="K36" s="29"/>
       <c r="L36" s="29"/>
@@ -4233,7 +4245,7 @@
       <c r="P36" s="28">
         <v>2</v>
       </c>
-      <c r="Q36" s="58"/>
+      <c r="Q36" s="57"/>
       <c r="R36" s="29"/>
       <c r="S36" s="21">
         <v>1</v>
@@ -4250,16 +4262,16 @@
       <c r="W36" s="21">
         <v>5</v>
       </c>
-      <c r="X36" s="69">
+      <c r="X36" s="68">
         <v>6</v>
       </c>
-      <c r="Y36" s="58"/>
+      <c r="Y36" s="57"/>
     </row>
     <row r="37" s="5" customFormat="1" ht="11.1" customHeight="1" spans="2:25">
       <c r="B37" s="31"/>
       <c r="C37" s="31"/>
       <c r="D37" s="32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E37" s="26" t="s">
         <v>31</v>
@@ -4273,19 +4285,19 @@
       <c r="H37" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="I37" s="59"/>
+      <c r="I37" s="58"/>
       <c r="J37" s="31"/>
       <c r="K37" s="26"/>
       <c r="L37" s="26"/>
       <c r="M37" s="26"/>
       <c r="N37" s="26"/>
       <c r="O37" s="32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P37" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="Q37" s="59"/>
+      <c r="Q37" s="58"/>
       <c r="R37" s="26"/>
       <c r="S37" s="26" t="s">
         <v>26</v>
@@ -4302,10 +4314,10 @@
       <c r="W37" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="X37" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y37" s="81"/>
+      <c r="X37" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y37" s="80"/>
     </row>
     <row r="38" s="4" customFormat="1" ht="11.1" customHeight="1" spans="2:25">
       <c r="B38" s="42">
@@ -4329,7 +4341,7 @@
       <c r="H38" s="28">
         <v>12</v>
       </c>
-      <c r="I38" s="58"/>
+      <c r="I38" s="57"/>
       <c r="J38" s="28">
         <v>3</v>
       </c>
@@ -4351,7 +4363,7 @@
       <c r="P38" s="28">
         <v>9</v>
       </c>
-      <c r="Q38" s="58"/>
+      <c r="Q38" s="57"/>
       <c r="R38" s="22">
         <v>7</v>
       </c>
@@ -4373,14 +4385,14 @@
       <c r="X38" s="28">
         <v>13</v>
       </c>
-      <c r="Y38" s="58"/>
+      <c r="Y38" s="57"/>
     </row>
     <row r="39" s="5" customFormat="1" ht="11.1" customHeight="1" spans="2:25">
       <c r="B39" s="31" t="s">
         <v>28</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D39" s="26" t="s">
         <v>37</v>
@@ -4397,7 +4409,7 @@
       <c r="H39" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="I39" s="59"/>
+      <c r="I39" s="58"/>
       <c r="J39" s="31" t="s">
         <v>26</v>
       </c>
@@ -4411,17 +4423,17 @@
         <v>36</v>
       </c>
       <c r="N39" s="27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O39" s="26" t="s">
         <v>38</v>
       </c>
       <c r="P39" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q39" s="59"/>
+        <v>105</v>
+      </c>
+      <c r="Q39" s="58"/>
       <c r="R39" s="31" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S39" s="26" t="s">
         <v>40</v>
@@ -4430,7 +4442,7 @@
         <v>46</v>
       </c>
       <c r="U39" s="40" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="V39" s="46" t="s">
         <v>48</v>
@@ -4441,7 +4453,7 @@
       <c r="X39" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="Y39" s="81"/>
+      <c r="Y39" s="80"/>
     </row>
     <row r="40" s="4" customFormat="1" ht="11.1" customHeight="1" spans="2:25">
       <c r="B40" s="42">
@@ -4465,7 +4477,7 @@
       <c r="H40" s="28">
         <v>19</v>
       </c>
-      <c r="I40" s="58"/>
+      <c r="I40" s="57"/>
       <c r="J40" s="28">
         <v>10</v>
       </c>
@@ -4487,7 +4499,7 @@
       <c r="P40" s="28">
         <v>16</v>
       </c>
-      <c r="Q40" s="58"/>
+      <c r="Q40" s="57"/>
       <c r="R40" s="22">
         <v>14</v>
       </c>
@@ -4509,7 +4521,7 @@
       <c r="X40" s="28">
         <v>20</v>
       </c>
-      <c r="Y40" s="58"/>
+      <c r="Y40" s="57"/>
     </row>
     <row r="41" s="5" customFormat="1" ht="11.1" customHeight="1" spans="2:25">
       <c r="B41" s="43" t="s">
@@ -4533,7 +4545,7 @@
       <c r="H41" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="I41" s="59"/>
+      <c r="I41" s="58"/>
       <c r="J41" s="31" t="s">
         <v>40</v>
       </c>
@@ -4555,7 +4567,7 @@
       <c r="P41" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="Q41" s="59"/>
+      <c r="Q41" s="58"/>
       <c r="R41" s="31" t="s">
         <v>56</v>
       </c>
@@ -4577,7 +4589,7 @@
       <c r="X41" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="Y41" s="81"/>
+      <c r="Y41" s="80"/>
     </row>
     <row r="42" s="4" customFormat="1" ht="11.1" customHeight="1" spans="2:25">
       <c r="B42" s="42">
@@ -4601,7 +4613,7 @@
       <c r="H42" s="28">
         <v>26</v>
       </c>
-      <c r="I42" s="58"/>
+      <c r="I42" s="57"/>
       <c r="J42" s="28">
         <v>17</v>
       </c>
@@ -4623,7 +4635,7 @@
       <c r="P42" s="28">
         <v>23</v>
       </c>
-      <c r="Q42" s="58"/>
+      <c r="Q42" s="57"/>
       <c r="R42" s="28">
         <v>22</v>
       </c>
@@ -4645,17 +4657,17 @@
       <c r="X42" s="28">
         <v>27</v>
       </c>
-      <c r="Y42" s="58"/>
+      <c r="Y42" s="57"/>
     </row>
     <row r="43" s="5" customFormat="1" ht="11.1" customHeight="1" spans="2:25">
       <c r="B43" s="43" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C43" s="26" t="s">
         <v>64</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E43" s="26" t="s">
         <v>14</v>
@@ -4664,12 +4676,12 @@
         <v>65</v>
       </c>
       <c r="G43" s="26" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H43" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="I43" s="59"/>
+      <c r="I43" s="58"/>
       <c r="J43" s="31" t="s">
         <v>57</v>
       </c>
@@ -4689,17 +4701,17 @@
         <v>14</v>
       </c>
       <c r="P43" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q43" s="59"/>
+        <v>111</v>
+      </c>
+      <c r="Q43" s="58"/>
       <c r="R43" s="27" t="s">
         <v>65</v>
       </c>
       <c r="S43" s="26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="T43" s="27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="U43" s="26" t="s">
         <v>18</v>
@@ -4713,7 +4725,7 @@
       <c r="X43" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="Y43" s="81"/>
+      <c r="Y43" s="80"/>
     </row>
     <row r="44" s="4" customFormat="1" ht="11.1" customHeight="1" spans="2:25">
       <c r="B44" s="42">
@@ -4733,7 +4745,7 @@
       </c>
       <c r="G44" s="29"/>
       <c r="H44" s="28"/>
-      <c r="I44" s="58"/>
+      <c r="I44" s="57"/>
       <c r="J44" s="28">
         <v>24</v>
       </c>
@@ -4755,11 +4767,11 @@
       <c r="P44" s="28">
         <v>30</v>
       </c>
-      <c r="Q44" s="58"/>
+      <c r="Q44" s="57"/>
       <c r="R44" s="34">
         <v>28</v>
       </c>
-      <c r="S44" s="29">
+      <c r="S44" s="38">
         <v>29</v>
       </c>
       <c r="T44" s="29">
@@ -4769,7 +4781,7 @@
       <c r="V44" s="29"/>
       <c r="W44" s="29"/>
       <c r="X44" s="28"/>
-      <c r="Y44" s="58"/>
+      <c r="Y44" s="57"/>
     </row>
     <row r="45" s="5" customFormat="1" ht="11.1" customHeight="1" spans="2:25">
       <c r="B45" s="31" t="s">
@@ -4782,14 +4794,14 @@
         <v>20</v>
       </c>
       <c r="E45" s="27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F45" s="26" t="s">
         <v>23</v>
       </c>
       <c r="G45" s="26"/>
       <c r="H45" s="31"/>
-      <c r="I45" s="59"/>
+      <c r="I45" s="58"/>
       <c r="J45" s="31" t="s">
         <v>63</v>
       </c>
@@ -4806,17 +4818,17 @@
         <v>75</v>
       </c>
       <c r="O45" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P45" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="Q45" s="59"/>
+      <c r="Q45" s="58"/>
       <c r="R45" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="S45" s="26" t="s">
-        <v>31</v>
+      <c r="S45" s="40" t="s">
+        <v>116</v>
       </c>
       <c r="T45" s="26" t="s">
         <v>32</v>
@@ -4825,7 +4837,7 @@
       <c r="V45" s="26"/>
       <c r="W45" s="26"/>
       <c r="X45" s="31"/>
-      <c r="Y45" s="81"/>
+      <c r="Y45" s="80"/>
     </row>
     <row r="46" s="4" customFormat="1" ht="11.1" customHeight="1" spans="2:25">
       <c r="B46" s="28"/>
@@ -4835,7 +4847,7 @@
       <c r="F46" s="29"/>
       <c r="G46" s="29"/>
       <c r="H46" s="28"/>
-      <c r="I46" s="58"/>
+      <c r="I46" s="57"/>
       <c r="J46" s="28">
         <v>31</v>
       </c>
@@ -4845,7 +4857,7 @@
       <c r="N46" s="29"/>
       <c r="O46" s="29"/>
       <c r="P46" s="28"/>
-      <c r="Q46" s="58"/>
+      <c r="Q46" s="57"/>
       <c r="R46" s="28"/>
       <c r="S46" s="29"/>
       <c r="T46" s="29"/>
@@ -4853,7 +4865,7 @@
       <c r="V46" s="29"/>
       <c r="W46" s="29"/>
       <c r="X46" s="28"/>
-      <c r="Y46" s="58"/>
+      <c r="Y46" s="57"/>
     </row>
     <row r="47" s="5" customFormat="1" ht="11.1" customHeight="1" spans="2:25">
       <c r="B47" s="31"/>
@@ -4863,7 +4875,7 @@
       <c r="F47" s="26"/>
       <c r="G47" s="26"/>
       <c r="H47" s="31"/>
-      <c r="I47" s="59"/>
+      <c r="I47" s="58"/>
       <c r="J47" s="31" t="s">
         <v>32</v>
       </c>
@@ -4873,7 +4885,7 @@
       <c r="N47" s="26"/>
       <c r="O47" s="26"/>
       <c r="P47" s="31"/>
-      <c r="Q47" s="59"/>
+      <c r="Q47" s="58"/>
       <c r="R47" s="31"/>
       <c r="S47" s="26"/>
       <c r="T47" s="26"/>
@@ -4881,37 +4893,37 @@
       <c r="V47" s="26"/>
       <c r="W47" s="26"/>
       <c r="X47" s="31"/>
-      <c r="Y47" s="81"/>
+      <c r="Y47" s="80"/>
     </row>
     <row r="48" ht="20.1" customHeight="1" spans="2:24">
       <c r="B48" s="12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
       <c r="G48" s="47" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H48" s="37"/>
       <c r="J48" s="12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K48" s="12"/>
       <c r="L48" s="12"/>
       <c r="M48" s="12"/>
-      <c r="O48" s="66" t="s">
-        <v>118</v>
+      <c r="O48" s="65" t="s">
+        <v>120</v>
       </c>
       <c r="P48" s="37"/>
       <c r="R48" s="12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="S48" s="12"/>
       <c r="T48" s="12"/>
       <c r="U48" s="12"/>
-      <c r="W48" s="74" t="s">
-        <v>120</v>
+      <c r="W48" s="73" t="s">
+        <v>122</v>
       </c>
       <c r="X48" s="37"/>
     </row>
@@ -4937,7 +4949,7 @@
       <c r="H49" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I49" s="55"/>
+      <c r="I49" s="54"/>
       <c r="J49" s="16" t="s">
         <v>7</v>
       </c>
@@ -4959,7 +4971,7 @@
       <c r="P49" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="Q49" s="55"/>
+      <c r="Q49" s="54"/>
       <c r="R49" s="16" t="s">
         <v>7</v>
       </c>
@@ -4981,7 +4993,7 @@
       <c r="X49" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="Y49" s="77"/>
+      <c r="Y49" s="76"/>
     </row>
     <row r="50" ht="9.95" customHeight="1" spans="2:24">
       <c r="B50" s="16"/>
@@ -5022,7 +5034,7 @@
       <c r="H51" s="48">
         <v>4</v>
       </c>
-      <c r="I51" s="58"/>
+      <c r="I51" s="57"/>
       <c r="J51" s="28"/>
       <c r="K51" s="29"/>
       <c r="L51" s="29"/>
@@ -5032,7 +5044,7 @@
       <c r="P51" s="28">
         <v>1</v>
       </c>
-      <c r="Q51" s="58"/>
+      <c r="Q51" s="57"/>
       <c r="R51" s="29"/>
       <c r="S51" s="21">
         <v>1</v>
@@ -5052,25 +5064,25 @@
       <c r="X51" s="28">
         <v>6</v>
       </c>
-      <c r="Y51" s="58"/>
+      <c r="Y51" s="57"/>
     </row>
     <row r="52" s="5" customFormat="1" ht="11.1" customHeight="1" spans="2:25">
       <c r="B52" s="31"/>
       <c r="C52" s="26"/>
       <c r="D52" s="26"/>
       <c r="E52" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="F52" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="F52" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G52" s="49" t="s">
+      <c r="G52" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H52" s="50" t="s">
+      <c r="H52" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="I52" s="59"/>
+      <c r="I52" s="58"/>
       <c r="J52" s="31"/>
       <c r="K52" s="26"/>
       <c r="L52" s="26"/>
@@ -5080,7 +5092,7 @@
       <c r="P52" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="Q52" s="59"/>
+      <c r="Q52" s="58"/>
       <c r="R52" s="26"/>
       <c r="S52" s="26" t="s">
         <v>28</v>
@@ -5100,7 +5112,7 @@
       <c r="X52" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="Y52" s="81"/>
+      <c r="Y52" s="80"/>
     </row>
     <row r="53" s="4" customFormat="1" ht="11.1" customHeight="1" spans="2:25">
       <c r="B53" s="48">
@@ -5121,10 +5133,10 @@
       <c r="G53" s="29">
         <v>10</v>
       </c>
-      <c r="H53" s="51">
+      <c r="H53" s="50">
         <v>11</v>
       </c>
-      <c r="I53" s="58"/>
+      <c r="I53" s="57"/>
       <c r="J53" s="28">
         <v>2</v>
       </c>
@@ -5146,7 +5158,7 @@
       <c r="P53" s="28">
         <v>8</v>
       </c>
-      <c r="Q53" s="58"/>
+      <c r="Q53" s="57"/>
       <c r="R53" s="22">
         <v>7</v>
       </c>
@@ -5168,20 +5180,20 @@
       <c r="X53" s="28">
         <v>13</v>
       </c>
-      <c r="Y53" s="58"/>
+      <c r="Y53" s="57"/>
     </row>
     <row r="54" s="5" customFormat="1" ht="11.1" customHeight="1" spans="2:25">
-      <c r="B54" s="50" t="s">
+      <c r="B54" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C54" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="D54" s="49" t="s">
+      <c r="C54" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="D54" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E54" s="49" t="s">
-        <v>123</v>
+      <c r="E54" s="25" t="s">
+        <v>125</v>
       </c>
       <c r="F54" s="26" t="s">
         <v>46</v>
@@ -5189,10 +5201,10 @@
       <c r="G54" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H54" s="53" t="s">
+      <c r="H54" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="I54" s="59"/>
+      <c r="I54" s="58"/>
       <c r="J54" s="31" t="s">
         <v>36</v>
       </c>
@@ -5209,14 +5221,14 @@
         <v>40</v>
       </c>
       <c r="O54" s="27" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P54" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="Q54" s="59"/>
+      <c r="Q54" s="58"/>
       <c r="R54" s="31" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="S54" s="26" t="s">
         <v>42</v>
@@ -5236,7 +5248,7 @@
       <c r="X54" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="Y54" s="81"/>
+      <c r="Y54" s="80"/>
     </row>
     <row r="55" s="4" customFormat="1" ht="11.1" customHeight="1" spans="2:25">
       <c r="B55" s="28">
@@ -5260,7 +5272,7 @@
       <c r="H55" s="28">
         <v>18</v>
       </c>
-      <c r="I55" s="58"/>
+      <c r="I55" s="57"/>
       <c r="J55" s="28">
         <v>9</v>
       </c>
@@ -5276,13 +5288,13 @@
       <c r="N55" s="29">
         <v>13</v>
       </c>
-      <c r="O55" s="29">
+      <c r="O55" s="38">
         <v>14</v>
       </c>
       <c r="P55" s="28">
         <v>15</v>
       </c>
-      <c r="Q55" s="58"/>
+      <c r="Q55" s="57"/>
       <c r="R55" s="22">
         <v>14</v>
       </c>
@@ -5304,7 +5316,7 @@
       <c r="X55" s="28">
         <v>20</v>
       </c>
-      <c r="Y55" s="58"/>
+      <c r="Y55" s="57"/>
     </row>
     <row r="56" s="5" customFormat="1" ht="11.1" customHeight="1" spans="2:25">
       <c r="B56" s="31" t="s">
@@ -5328,7 +5340,7 @@
       <c r="H56" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I56" s="59"/>
+      <c r="I56" s="58"/>
       <c r="J56" s="31" t="s">
         <v>48</v>
       </c>
@@ -5344,13 +5356,13 @@
       <c r="N56" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="O56" s="26" t="s">
-        <v>53</v>
+      <c r="O56" s="40" t="s">
+        <v>128</v>
       </c>
       <c r="P56" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="Q56" s="59"/>
+      <c r="Q56" s="58"/>
       <c r="R56" s="31" t="s">
         <v>53</v>
       </c>
@@ -5370,9 +5382,9 @@
         <v>65</v>
       </c>
       <c r="X56" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y56" s="81"/>
+        <v>129</v>
+      </c>
+      <c r="Y56" s="80"/>
     </row>
     <row r="57" s="4" customFormat="1" ht="11.1" customHeight="1" spans="2:25">
       <c r="B57" s="28">
@@ -5390,13 +5402,13 @@
       <c r="F57" s="29">
         <v>23</v>
       </c>
-      <c r="G57" s="29">
+      <c r="G57" s="38">
         <v>24</v>
       </c>
       <c r="H57" s="28">
         <v>25</v>
       </c>
-      <c r="I57" s="58"/>
+      <c r="I57" s="57"/>
       <c r="J57" s="28">
         <v>16</v>
       </c>
@@ -5418,7 +5430,7 @@
       <c r="P57" s="28">
         <v>22</v>
       </c>
-      <c r="Q57" s="58"/>
+      <c r="Q57" s="57"/>
       <c r="R57" s="28">
         <v>21</v>
       </c>
@@ -5440,7 +5452,7 @@
       <c r="X57" s="28">
         <v>27</v>
       </c>
-      <c r="Y57" s="58"/>
+      <c r="Y57" s="57"/>
     </row>
     <row r="58" s="5" customFormat="1" ht="11.1" customHeight="1" spans="2:25">
       <c r="B58" s="31" t="s">
@@ -5450,21 +5462,21 @@
         <v>14</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E58" s="26" t="s">
         <v>63</v>
       </c>
       <c r="F58" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="G58" s="26" t="s">
-        <v>19</v>
+        <v>131</v>
+      </c>
+      <c r="G58" s="40" t="s">
+        <v>132</v>
       </c>
       <c r="H58" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="I58" s="59"/>
+      <c r="I58" s="58"/>
       <c r="J58" s="31" t="s">
         <v>64</v>
       </c>
@@ -5478,17 +5490,17 @@
         <v>65</v>
       </c>
       <c r="N58" s="32" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O58" s="26" t="s">
         <v>63</v>
       </c>
       <c r="P58" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q58" s="59"/>
+        <v>134</v>
+      </c>
+      <c r="Q58" s="58"/>
       <c r="R58" s="27" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="S58" s="26" t="s">
         <v>18</v>
@@ -5497,10 +5509,10 @@
         <v>19</v>
       </c>
       <c r="U58" s="40" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="V58" s="40" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="W58" s="26" t="s">
         <v>23</v>
@@ -5508,7 +5520,7 @@
       <c r="X58" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="Y58" s="81"/>
+      <c r="Y58" s="80"/>
     </row>
     <row r="59" s="4" customFormat="1" ht="11.1" customHeight="1" spans="2:25">
       <c r="B59" s="28">
@@ -5530,7 +5542,7 @@
         <v>31</v>
       </c>
       <c r="H59" s="28"/>
-      <c r="I59" s="58"/>
+      <c r="I59" s="57"/>
       <c r="J59" s="28">
         <v>23</v>
       </c>
@@ -5543,7 +5555,7 @@
       <c r="M59" s="29">
         <v>26</v>
       </c>
-      <c r="N59" s="29">
+      <c r="N59" s="38">
         <v>27</v>
       </c>
       <c r="O59" s="29">
@@ -5552,7 +5564,7 @@
       <c r="P59" s="28">
         <v>29</v>
       </c>
-      <c r="Q59" s="58"/>
+      <c r="Q59" s="57"/>
       <c r="R59" s="22">
         <v>28</v>
       </c>
@@ -5574,7 +5586,7 @@
       <c r="X59" s="18">
         <v>3</v>
       </c>
-      <c r="Y59" s="58"/>
+      <c r="Y59" s="57"/>
     </row>
     <row r="60" s="5" customFormat="1" ht="11.1" customHeight="1" spans="2:25">
       <c r="B60" s="31" t="s">
@@ -5587,16 +5599,16 @@
         <v>31</v>
       </c>
       <c r="E60" s="32" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F60" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G60" s="40" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H60" s="31"/>
-      <c r="I60" s="59"/>
+      <c r="I60" s="58"/>
       <c r="J60" s="31" t="s">
         <v>19</v>
       </c>
@@ -5609,8 +5621,8 @@
       <c r="M60" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="N60" s="46" t="s">
-        <v>31</v>
+      <c r="N60" s="40" t="s">
+        <v>140</v>
       </c>
       <c r="O60" s="26" t="s">
         <v>32</v>
@@ -5618,7 +5630,7 @@
       <c r="P60" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="Q60" s="59"/>
+      <c r="Q60" s="58"/>
       <c r="R60" s="31" t="s">
         <v>32</v>
       </c>
@@ -5631,7 +5643,7 @@
       <c r="U60" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="V60" s="75" t="s">
+      <c r="V60" s="74" t="s">
         <v>17</v>
       </c>
       <c r="W60" s="24" t="s">
@@ -5640,7 +5652,7 @@
       <c r="X60" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="Y60" s="81"/>
+      <c r="Y60" s="80"/>
     </row>
     <row r="61" ht="11.1" customHeight="1" spans="2:24">
       <c r="B61" s="28"/>
@@ -5650,7 +5662,7 @@
       <c r="F61" s="29"/>
       <c r="G61" s="29"/>
       <c r="H61" s="28"/>
-      <c r="I61" s="58"/>
+      <c r="I61" s="57"/>
       <c r="J61" s="28">
         <v>30</v>
       </c>
@@ -5660,7 +5672,7 @@
       <c r="N61" s="29"/>
       <c r="O61" s="29"/>
       <c r="P61" s="28"/>
-      <c r="Q61" s="58"/>
+      <c r="Q61" s="57"/>
       <c r="R61" s="28"/>
       <c r="S61" s="29"/>
       <c r="T61" s="29"/>
@@ -5677,7 +5689,7 @@
       <c r="F62" s="26"/>
       <c r="G62" s="26"/>
       <c r="H62" s="31"/>
-      <c r="I62" s="59"/>
+      <c r="I62" s="58"/>
       <c r="J62" s="31" t="s">
         <v>27</v>
       </c>
@@ -5687,7 +5699,7 @@
       <c r="N62" s="26"/>
       <c r="O62" s="26"/>
       <c r="P62" s="31"/>
-      <c r="Q62" s="59"/>
+      <c r="Q62" s="58"/>
       <c r="R62" s="31"/>
       <c r="S62" s="26"/>
       <c r="T62" s="26"/>
@@ -5695,7 +5707,7 @@
       <c r="V62" s="26"/>
       <c r="W62" s="26"/>
       <c r="X62" s="31"/>
-      <c r="Y62" s="81"/>
+      <c r="Y62" s="80"/>
     </row>
     <row r="63" s="5" customFormat="1" ht="4.5" customHeight="1" spans="2:25">
       <c r="B63" s="31"/>
@@ -5705,7 +5717,7 @@
       <c r="F63" s="26"/>
       <c r="G63" s="26"/>
       <c r="H63" s="31"/>
-      <c r="I63" s="59"/>
+      <c r="I63" s="58"/>
       <c r="J63" s="31"/>
       <c r="K63" s="26"/>
       <c r="L63" s="26"/>
@@ -5713,7 +5725,7 @@
       <c r="N63" s="26"/>
       <c r="O63" s="26"/>
       <c r="P63" s="31"/>
-      <c r="Q63" s="59"/>
+      <c r="Q63" s="58"/>
       <c r="R63" s="31"/>
       <c r="S63" s="26"/>
       <c r="T63" s="26"/>
@@ -5721,7 +5733,7 @@
       <c r="V63" s="26"/>
       <c r="W63" s="26"/>
       <c r="X63" s="31"/>
-      <c r="Y63" s="81"/>
+      <c r="Y63" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="111">
